--- a/7月25日-10月30日-计划.xlsx
+++ b/7月25日-10月30日-计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03-ricolee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-github\rocklee2015\RicoSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F4E94-69C7-45C2-8D44-D4F1E6FDBBA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3797ED4-0E82-43E5-B376-328AFD95F04C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1433D32C-185C-4099-8BE5-962CA12775C2}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="37">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,12 +143,60 @@
     <t>22:30:00-23:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>星期一/7月22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二/7月23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三/7月24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期四/7月25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期五/7月26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六/7月27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日/7月28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度比较差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +229,56 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,7 +311,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,12 +398,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,48 +428,133 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,279 +866,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90851E9E-168C-4D2F-A89A-DFF404923D2D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="18.625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0.24305555555555555</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9"/>
+      <c r="C3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.2638888888888889</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="12">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>0.33680555555555558</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="B11" s="16">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H11" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,38 +1222,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -987,18 +1262,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1009,34 +1284,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1068,15 +1343,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1084,15 +1359,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1115,10 +1390,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1141,32 +1416,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1229,38 +1504,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1269,18 +1544,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1291,34 +1566,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1350,15 +1625,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1366,15 +1641,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1397,10 +1672,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1423,32 +1698,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1511,38 +1786,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1551,18 +1826,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1573,34 +1848,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1632,15 +1907,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1648,15 +1923,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1679,10 +1954,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1705,32 +1980,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1793,38 +2068,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1833,18 +2108,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1855,34 +2130,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1914,15 +2189,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1930,15 +2205,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1961,10 +2236,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1987,32 +2262,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2075,38 +2350,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2115,18 +2390,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2137,34 +2412,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2196,15 +2471,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2212,15 +2487,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2243,10 +2518,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2269,32 +2544,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2357,38 +2632,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2397,18 +2672,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2419,34 +2694,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2478,15 +2753,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2494,15 +2769,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2525,10 +2800,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2551,32 +2826,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2639,38 +2914,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2679,18 +2954,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2701,34 +2976,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2760,15 +3035,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2776,15 +3051,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2807,10 +3082,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2833,32 +3108,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2921,38 +3196,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2961,18 +3236,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2983,34 +3258,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -3042,15 +3317,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3058,15 +3333,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3089,10 +3364,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3115,32 +3390,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3203,38 +3478,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3243,18 +3518,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3265,34 +3540,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -3324,15 +3599,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3340,15 +3615,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3371,10 +3646,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3397,32 +3672,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3485,38 +3760,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3525,18 +3800,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3547,34 +3822,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -3606,15 +3881,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3622,15 +3897,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3653,10 +3928,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3679,32 +3954,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3767,38 +4042,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3807,18 +4082,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3829,34 +4104,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -3888,15 +4163,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3904,15 +4179,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3935,10 +4210,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3961,32 +4236,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4049,38 +4324,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4089,18 +4364,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4111,34 +4386,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -4170,15 +4445,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4186,15 +4461,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4217,10 +4492,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4243,32 +4518,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/7月25日-10月30日-计划.xlsx
+++ b/7月25日-10月30日-计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03-ricolee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-github\rocklee2015\RicoSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F4E94-69C7-45C2-8D44-D4F1E6FDBBA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB78357-DFCF-45E3-AEC8-A70426B797EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1433D32C-185C-4099-8BE5-962CA12775C2}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="37">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,12 +143,60 @@
     <t>22:30:00-23:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>星期一/7月22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二/7月23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三/7月24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期四/7月25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期五/7月26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期六/7月27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日/7月28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度比较差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +229,63 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,7 +318,34 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,12 +411,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,48 +441,151 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,283 +897,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90851E9E-168C-4D2F-A89A-DFF404923D2D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="8" width="18.625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="21.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0.24305555555555555</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9"/>
+      <c r="C3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.2638888888888889</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="12">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="B5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>0.33680555555555558</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="B11" s="16">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H11" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D13" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
+  <mergeCells count="16">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -947,38 +1255,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -987,18 +1295,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1009,34 +1317,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1068,15 +1376,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1084,15 +1392,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1115,10 +1423,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1141,32 +1449,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1229,38 +1537,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1269,18 +1577,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1291,34 +1599,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1350,15 +1658,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1366,15 +1674,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1397,10 +1705,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1423,32 +1731,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1511,38 +1819,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1551,18 +1859,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1573,34 +1881,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1632,15 +1940,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1648,15 +1956,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1679,10 +1987,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1705,32 +2013,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1793,38 +2101,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1833,18 +2141,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1855,34 +2163,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1914,15 +2222,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1930,15 +2238,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1961,10 +2269,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1987,32 +2295,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2075,38 +2383,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2115,18 +2423,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2137,34 +2445,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2196,15 +2504,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2212,15 +2520,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2243,10 +2551,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2269,32 +2577,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2357,38 +2665,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2397,18 +2705,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2419,34 +2727,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2478,15 +2786,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2494,15 +2802,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2525,10 +2833,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2551,32 +2859,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2639,38 +2947,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2679,18 +2987,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2701,34 +3009,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2760,15 +3068,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2776,15 +3084,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2807,10 +3115,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2833,32 +3141,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2921,38 +3229,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2961,18 +3269,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2983,34 +3291,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -3042,15 +3350,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3058,15 +3366,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3089,10 +3397,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3115,32 +3423,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3203,38 +3511,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3243,18 +3551,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3265,34 +3573,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -3324,15 +3632,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3340,15 +3648,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3371,10 +3679,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3397,32 +3705,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3485,38 +3793,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3525,18 +3833,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3547,34 +3855,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -3606,15 +3914,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3622,15 +3930,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3653,10 +3961,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3679,32 +3987,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3767,38 +4075,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3807,18 +4115,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3829,34 +4137,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -3888,15 +4196,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3904,15 +4212,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3935,10 +4243,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3961,32 +4269,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4049,38 +4357,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4089,18 +4397,18 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4111,34 +4419,34 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -4170,15 +4478,15 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4186,15 +4494,15 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4217,10 +4525,10 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4243,32 +4551,32 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
